--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Scientific Name</t>
   </si>
@@ -26,42 +26,6 @@
   </si>
   <si>
     <t>Relative Frequency %</t>
-  </si>
-  <si>
-    <t>Xenoglaux loweryi</t>
-  </si>
-  <si>
-    <t>Long-whiskered Owlet</t>
-  </si>
-  <si>
-    <t>33.33</t>
-  </si>
-  <si>
-    <t>Drymophila striaticeps</t>
-  </si>
-  <si>
-    <t>Streak-headed Antbird</t>
-  </si>
-  <si>
-    <t>16.67</t>
-  </si>
-  <si>
-    <t>Grallaricula ochraceifrons</t>
-  </si>
-  <si>
-    <t>Ochre-fronted Antpitta</t>
-  </si>
-  <si>
-    <t>Pseudotriccus ruficeps</t>
-  </si>
-  <si>
-    <t>Rufous-headed Pygmy-Tyrant</t>
-  </si>
-  <si>
-    <t>Poecilotriccus luluae</t>
-  </si>
-  <si>
-    <t>Johnson's Tody-Flycatcher</t>
   </si>
 </sst>
 </file>
@@ -396,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,76 +380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="2" spans="1:4" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -14,18 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+  <si>
+    <t>Nº</t>
+  </si>
   <si>
     <t>Scientific Name</t>
   </si>
   <si>
-    <t>CommonName</t>
-  </si>
-  <si>
-    <t>Absolute Frequency</t>
-  </si>
-  <si>
-    <t>Relative Frequency %</t>
+    <t>Common Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>3527</t>
+  </si>
+  <si>
+    <t>Common Pauraque</t>
+  </si>
+  <si>
+    <t>Hacienda Puca Cruz</t>
+  </si>
+  <si>
+    <t>8975</t>
+  </si>
+  <si>
+    <t>Striped Owl</t>
+  </si>
+  <si>
+    <t>32483</t>
+  </si>
+  <si>
+    <t>Rufous-collared Sparrow</t>
+  </si>
+  <si>
+    <t>15225</t>
+  </si>
+  <si>
+    <t>Azara's Spinetail</t>
+  </si>
+  <si>
+    <t>Camino a Limón Punta--El Molino--Chachapoyas--Chachapoyas</t>
+  </si>
+  <si>
+    <t>2329</t>
+  </si>
+  <si>
+    <t>White-tipped Dove (decolor)</t>
+  </si>
+  <si>
+    <t>13853</t>
+  </si>
+  <si>
+    <t>Chestnut-crowned Antpitta</t>
+  </si>
+  <si>
+    <t>18607</t>
+  </si>
+  <si>
+    <t>Rufous-browed Peppershrike (Yellow-backed)</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>Striped Cuckoo</t>
+  </si>
+  <si>
+    <t>26534</t>
+  </si>
+  <si>
+    <t>Tropical Gnatcatcher (Marañon)</t>
+  </si>
+  <si>
+    <t>33322</t>
+  </si>
+  <si>
+    <t>Black-lored Yellowthroat</t>
+  </si>
+  <si>
+    <t>Limón Punta--El Molino--Chachapoyas--Chachapoyas</t>
+  </si>
+  <si>
+    <t>4955</t>
+  </si>
+  <si>
+    <t>Spot-throated Hummingbird</t>
   </si>
 </sst>
 </file>
@@ -360,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +455,160 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15"/>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
